--- a/Week-5/HPICalculator/HPICalculator/App_Data/HPI_data.xlsx
+++ b/Week-5/HPICalculator/HPICalculator/App_Data/HPI_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="645" windowWidth="20595" windowHeight="9480" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="645" windowWidth="19995" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Harrow" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,39 @@
     <sheet name="Kensington" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Brent!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ealing!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">London!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Brent!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ealing!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">London!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="8">
   <si>
     <t>Period</t>
   </si>
   <si>
     <t>PercentageAnnualChange</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Harrow</t>
+  </si>
+  <si>
+    <t>City of London</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Ealing</t>
+  </si>
+  <si>
+    <t>Kensington-Chealsea</t>
   </si>
 </sst>
 </file>
@@ -370,128 +388,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.65</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-1.28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>10.51</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-14.73</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7.19</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6.01</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>10.46</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>15.39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>11.86</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>5.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C15">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C16">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C17">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C18">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C19">
+        <v>-16.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C20">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C21">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C22">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C23">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C24">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C25">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C26">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C27">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C28">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C29">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C30">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C31">
+        <v>14.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C32">
+        <v>-13.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C33">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C34">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C35">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C36">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C37">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C38">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C39">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C41">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C42">
+        <v>-4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C43">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C44">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C45">
+        <v>-15.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C46">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C47">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C48">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C49">
+        <v>-11.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C50">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C51">
+        <v>25.39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C52">
+        <v>-5.98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C53">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C54">
+        <v>-3.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C55">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C56">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C57">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C58">
+        <v>-17.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C59">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C60">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C61">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C62">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C63">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C64">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C65">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C66">
+        <v>2.0099999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -502,513 +1135,688 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6.56</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>10.49</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>13.38</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-16.97</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>9.98</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>5.62</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.85</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>6.67</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>12.15</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>13.13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>14.09</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
-    <sortState ref="A2:B14">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="B1:C1">
+    <sortState ref="B2:C14">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>6.82</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6.36</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>14.18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-13.45</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>4.91</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>5.83</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5.24</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>12.11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>15.81</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>11.01</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-4.3099999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>14.17</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>30.74</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-15.16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>16.02</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-4.74</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-11.46</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>34.28</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>25.39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-5.98</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>-0.68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-3.62</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
         <v>2006</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
         <v>2007</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>20.68</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
         <v>2008</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>18.86</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>2009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-17.54</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
         <v>2010</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>18.86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>2011</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
         <v>2012</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>14.83</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>12.85</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
         <v>2015</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>9.01</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
         <v>2016</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1.67</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
         <v>2017</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.0099999999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>